--- a/S.A.V.E/camparison results.xlsx
+++ b/S.A.V.E/camparison results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study_USN\System-Engineering\S.A.V.E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\System-Engineering\S.A.V.E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80CAF29-50D3-486B-9E7E-2E21DF1AEFF6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4989F79C-11B7-47D7-B430-24D2DF7BBF80}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="Weighted evaluation" sheetId="4" r:id="rId10"/>
     <sheet name="Conclusion" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +163,13 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -431,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -514,6 +521,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -521,18 +531,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,28 +548,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -592,7 +600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -894,36 +902,36 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1252,7 +1260,7 @@
       <selection activeCell="A14" sqref="A14:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="10" width="12.5703125" customWidth="1"/>
@@ -1287,10 +1295,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="29">
         <v>8.152822921349559E-2</v>
       </c>
@@ -1319,7 +1327,7 @@
       <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1349,7 +1357,7 @@
       <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1377,7 +1385,7 @@
       <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1407,7 +1415,7 @@
       <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="14" t="s">
         <v>26</v>
       </c>
@@ -1435,7 +1443,7 @@
       <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1463,7 +1471,7 @@
       <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1493,7 +1501,7 @@
       <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1582,7 +1590,7 @@
       <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -1622,7 +1630,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
@@ -1660,7 +1668,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -1700,7 +1708,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -1738,7 +1746,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="18" t="s">
         <v>8</v>
       </c>
@@ -1776,7 +1784,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -1816,7 +1824,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="18" t="s">
         <v>10</v>
       </c>
@@ -1951,109 +1959,110 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="20">
+      <c r="B1" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="47">
         <v>5.9183396592734624E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="47">
         <v>6.5287761464216609E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="47">
         <v>7.6474409934957729E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="B4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="47">
         <v>9.9318790516930627E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="47">
         <v>0.21042756987363054</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="47">
         <v>0.2120465236921126</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="47">
         <v>0.23855417666122708</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="47">
         <v>0.30837404674395974</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="20">
+      <c r="B9" s="50"/>
+      <c r="C9" s="47">
         <v>0.48033332452023053</v>
       </c>
     </row>
@@ -2065,6 +2074,7 @@
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="32767" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2076,7 +2086,7 @@
       <selection activeCell="J11" sqref="J11:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="11" customWidth="1"/>
     <col min="2" max="7" width="10.140625" style="11" customWidth="1"/>
@@ -2115,25 +2125,25 @@
       <c r="B2" s="25">
         <v>1</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="30">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="30">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E2" s="45">
-        <v>1</v>
-      </c>
-      <c r="F2" s="45">
+      <c r="E2" s="30">
+        <v>1</v>
+      </c>
+      <c r="F2" s="30">
         <v>3</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="30">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="30">
         <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
@@ -2145,22 +2155,22 @@
       <c r="B3" s="25">
         <v>5</v>
       </c>
-      <c r="C3" s="45">
-        <v>1</v>
-      </c>
-      <c r="D3" s="45">
-        <v>1</v>
-      </c>
-      <c r="E3" s="45">
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30">
         <v>0.2</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="30">
         <v>7</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="30">
         <v>5</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="30">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
@@ -2172,23 +2182,23 @@
       <c r="B4" s="25">
         <v>3</v>
       </c>
-      <c r="C4" s="45">
-        <v>1</v>
-      </c>
-      <c r="D4" s="45">
-        <v>1</v>
-      </c>
-      <c r="E4" s="45">
+      <c r="C4" s="30">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30">
+        <v>1</v>
+      </c>
+      <c r="E4" s="30">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="30">
         <v>5</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="30">
         <v>0.2</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="30">
         <v>1</v>
       </c>
     </row>
@@ -2199,22 +2209,22 @@
       <c r="B5" s="25">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="30">
         <v>5</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="30">
         <v>3</v>
       </c>
-      <c r="E5" s="45">
-        <v>1</v>
-      </c>
-      <c r="F5" s="45">
+      <c r="E5" s="30">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30">
         <v>7</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="30">
         <v>0.2</v>
       </c>
     </row>
@@ -2226,23 +2236,23 @@
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="30">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="30">
         <v>0.2</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="30">
         <v>0.14285714285714285</v>
       </c>
-      <c r="F6" s="45">
-        <v>1</v>
-      </c>
-      <c r="G6" s="45">
+      <c r="F6" s="30">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="30">
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -2253,22 +2263,22 @@
       <c r="B7" s="25">
         <v>5</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="30">
         <v>0.2</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="30">
         <v>5</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="30">
         <v>3</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="30">
         <v>3</v>
       </c>
-      <c r="G7" s="45">
-        <v>1</v>
-      </c>
-      <c r="H7" s="45">
+      <c r="G7" s="30">
+        <v>1</v>
+      </c>
+      <c r="H7" s="30">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2276,25 +2286,25 @@
       <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="45">
-        <v>9</v>
-      </c>
-      <c r="C8" s="45">
+      <c r="B8" s="30">
+        <v>9</v>
+      </c>
+      <c r="C8" s="30">
         <v>7</v>
       </c>
-      <c r="D8" s="45">
-        <v>1</v>
-      </c>
-      <c r="E8" s="45">
+      <c r="D8" s="30">
+        <v>1</v>
+      </c>
+      <c r="E8" s="30">
         <v>5</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="30">
         <v>7</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="30">
         <v>3</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="30">
         <v>1</v>
       </c>
     </row>
@@ -2651,7 +2661,7 @@
       <selection activeCell="M14" sqref="M14:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -2659,31 +2669,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2713,7 +2723,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2748,7 +2758,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2789,7 +2799,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2831,7 +2841,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -2869,7 +2879,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2906,7 +2916,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2944,7 +2954,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -3089,7 +3099,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3141,7 +3151,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
@@ -3191,7 +3201,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3243,7 +3253,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -3293,7 +3303,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -3343,7 +3353,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3395,7 +3405,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
@@ -3548,16 +3558,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3572,34 +3582,34 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3629,7 +3639,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3664,7 +3674,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3697,7 +3707,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3732,7 +3742,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -3765,7 +3775,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -3798,7 +3808,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3833,7 +3843,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -3978,7 +3988,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4030,7 +4040,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
@@ -4080,7 +4090,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4132,7 +4142,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -4182,7 +4192,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -4232,7 +4242,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4284,7 +4294,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
@@ -4437,16 +4447,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4460,34 +4470,34 @@
       <selection activeCell="A13" sqref="A13:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4517,7 +4527,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4552,7 +4562,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4585,7 +4595,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4620,7 +4630,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -4653,7 +4663,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -4686,7 +4696,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4721,7 +4731,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4866,7 +4876,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4918,7 +4928,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
@@ -4968,7 +4978,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -5020,7 +5030,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -5070,7 +5080,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -5119,13 +5129,13 @@
         <v>2.8729673771202256E-2</v>
       </c>
       <c r="N18" s="19"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -5182,7 +5192,7 @@
       <c r="R19" s="17"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
@@ -5375,7 +5385,7 @@
       <c r="R24" s="26"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H25" s="42"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="16"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
@@ -5388,7 +5398,7 @@
       <c r="R25" s="26"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H26" s="42"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="16"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
@@ -5453,34 +5463,34 @@
       <selection activeCell="M14" sqref="M14:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -5510,7 +5520,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -5546,7 +5556,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -5579,7 +5589,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5614,7 +5624,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -5647,7 +5657,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -5680,7 +5690,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -5715,7 +5725,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -5860,7 +5870,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -5912,7 +5922,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
@@ -5962,7 +5972,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -6014,7 +6024,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -6064,7 +6074,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -6114,7 +6124,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -6166,7 +6176,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
@@ -6319,16 +6329,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6342,34 +6352,34 @@
       <selection activeCell="M14" sqref="M14:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -6399,7 +6409,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -6434,7 +6444,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -6467,7 +6477,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6502,7 +6512,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -6535,7 +6545,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -6568,7 +6578,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -6603,7 +6613,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -6748,7 +6758,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -6800,7 +6810,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
@@ -6850,7 +6860,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -6902,7 +6912,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -6952,7 +6962,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="18" t="s">
         <v>8</v>
       </c>
@@ -7002,7 +7012,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -7054,7 +7064,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="18" t="s">
         <v>10</v>
       </c>
@@ -7207,16 +7217,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7230,34 +7240,34 @@
       <selection activeCell="M14" sqref="M14:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -7287,7 +7297,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -7322,7 +7332,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -7355,7 +7365,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -7390,7 +7400,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -7423,7 +7433,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -7456,7 +7466,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -7491,7 +7501,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -7636,7 +7646,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -7688,7 +7698,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
@@ -7738,7 +7748,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -7790,7 +7800,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -7840,7 +7850,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="18" t="s">
         <v>8</v>
       </c>
@@ -7890,7 +7900,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -7942,7 +7952,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="18" t="s">
         <v>10</v>
       </c>
@@ -8095,16 +8105,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8118,34 +8128,34 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -8175,7 +8185,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -8210,7 +8220,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -8243,7 +8253,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -8278,7 +8288,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -8311,7 +8321,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -8344,7 +8354,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -8379,7 +8389,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -8524,7 +8534,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -8576,7 +8586,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
@@ -8626,7 +8636,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -8678,7 +8688,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -8728,7 +8738,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="18" t="s">
         <v>8</v>
       </c>
@@ -8778,7 +8788,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -8830,7 +8840,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="18" t="s">
         <v>10</v>
       </c>
@@ -8983,16 +8993,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/S.A.V.E/camparison results.xlsx
+++ b/S.A.V.E/camparison results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\System-Engineering\S.A.V.E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study_USN\System-Engineering\S.A.V.E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4989F79C-11B7-47D7-B430-24D2DF7BBF80}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D86F1A-3522-4378-A08E-F6F97E732410}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Weighted evaluation" sheetId="4" r:id="rId10"/>
     <sheet name="Conclusion" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="37">
   <si>
     <t>Criteria</t>
   </si>
@@ -141,6 +141,12 @@
   <si>
     <t>complexity</t>
   </si>
+  <si>
+    <t>Concept Solutions</t>
+  </si>
+  <si>
+    <t>Weighted Evaluation</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +175,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -184,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -408,37 +414,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -524,6 +504,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -572,15 +558,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,7 +579,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -899,39 +878,39 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
@@ -960,7 +939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +1239,7 @@
       <selection activeCell="A14" sqref="A14:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="10" width="12.5703125" customWidth="1"/>
@@ -1290,15 +1269,15 @@
         <v>20</v>
       </c>
       <c r="J1" s="13"/>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="46" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="29">
         <v>8.152822921349559E-2</v>
       </c>
@@ -1321,13 +1300,13 @@
         <v>0.56441222811234304</v>
       </c>
       <c r="J2" s="29"/>
-      <c r="K2" s="44"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K3" s="44"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1354,10 +1333,10 @@
       <c r="I4">
         <v>5.3770089531210548E-2</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1382,10 +1361,10 @@
       <c r="I5">
         <v>0.13848263530783644</v>
       </c>
-      <c r="K5" s="44"/>
+      <c r="K5" s="46"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1412,10 +1391,10 @@
       <c r="I6">
         <v>2.3490189034388719E-2</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="14" t="s">
         <v>26</v>
       </c>
@@ -1440,10 +1419,10 @@
       <c r="I7">
         <v>0.12853238655161756</v>
       </c>
-      <c r="K7" s="44"/>
+      <c r="K7" s="46"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1468,10 +1447,10 @@
       <c r="I8">
         <v>0.12853238655161756</v>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1498,10 +1477,10 @@
       <c r="I9">
         <v>3.899406500338097E-2</v>
       </c>
-      <c r="K9" s="44"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1526,7 +1505,7 @@
       <c r="I10">
         <v>2.3490189034388719E-2</v>
       </c>
-      <c r="K10" s="44"/>
+      <c r="K10" s="46"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1556,7 +1535,7 @@
       <c r="I11">
         <v>2.3490189034388719E-2</v>
       </c>
-      <c r="K11" s="44"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
@@ -1584,13 +1563,13 @@
       <c r="I12">
         <v>0.44121786995117085</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -1630,7 +1609,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
@@ -1668,7 +1647,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -1708,7 +1687,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -1746,7 +1725,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="18" t="s">
         <v>8</v>
       </c>
@@ -1784,7 +1763,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -1824,7 +1803,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="18" t="s">
         <v>10</v>
       </c>
@@ -1956,122 +1935,132 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213670E0-96D4-4104-9806-77400A2C44F8}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="47">
+      <c r="B2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="32">
         <v>5.9183396592734624E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+    <row r="3" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C3" s="32">
         <v>6.5287761464216609E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+    <row r="4" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C4" s="32">
         <v>7.6474409934957729E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
+    <row r="5" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="47">
+      <c r="B5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="32">
         <v>9.9318790516930627E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
+    <row r="6" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C6" s="32">
         <v>0.21042756987363054</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+    <row r="7" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B7" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C7" s="32">
         <v>0.2120465236921126</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="46" t="s">
+    <row r="8" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C8" s="32">
         <v>0.23855417666122708</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="46" t="s">
+    <row r="9" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C9" s="32">
         <v>0.30837404674395974</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49" t="s">
+    <row r="10" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="47">
+      <c r="B10" s="48"/>
+      <c r="C10" s="32">
         <v>0.48033332452023053</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C9">
-    <sortCondition ref="C1"/>
+  <sortState ref="A2:C10">
+    <sortCondition ref="C2"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="2">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="32767" orientation="portrait" r:id="rId1"/>
@@ -2086,7 +2075,7 @@
       <selection activeCell="J11" sqref="J11:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="11" customWidth="1"/>
     <col min="2" max="7" width="10.140625" style="11" customWidth="1"/>
@@ -2657,11 +2646,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818ABEFF-9AD8-43DD-88FC-80EF975E2E47}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -2669,31 +2658,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2723,7 +2712,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2758,7 +2747,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2799,7 +2788,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2841,7 +2830,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -2879,7 +2868,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2916,7 +2905,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2954,7 +2943,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -3099,7 +3088,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3151,7 +3140,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
@@ -3201,7 +3190,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3253,7 +3242,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -3303,7 +3292,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -3353,7 +3342,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3405,7 +3394,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
@@ -3578,38 +3567,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971602B7-7389-46E4-AE5B-A5883995EBC0}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="J11" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3639,7 +3628,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3674,7 +3663,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3707,7 +3696,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3742,7 +3731,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -3775,7 +3764,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -3808,7 +3797,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3843,7 +3832,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -3988,7 +3977,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4040,7 +4029,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
@@ -4090,7 +4079,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4142,7 +4131,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -4192,7 +4181,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -4242,7 +4231,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4294,7 +4283,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
@@ -4470,34 +4459,34 @@
       <selection activeCell="A13" sqref="A13:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4527,7 +4516,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4562,7 +4551,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4595,7 +4584,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4630,7 +4619,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -4663,7 +4652,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -4696,7 +4685,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4731,7 +4720,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4876,7 +4865,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4928,7 +4917,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
@@ -4978,7 +4967,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -5030,7 +5019,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -5080,7 +5069,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -5129,13 +5118,13 @@
         <v>2.8729673771202256E-2</v>
       </c>
       <c r="N18" s="19"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -5192,7 +5181,7 @@
       <c r="R19" s="17"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
@@ -5385,7 +5374,7 @@
       <c r="R24" s="26"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H25" s="43"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="16"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
@@ -5398,7 +5387,7 @@
       <c r="R25" s="26"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H26" s="43"/>
+      <c r="H26" s="45"/>
       <c r="I26" s="16"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
@@ -5463,34 +5452,34 @@
       <selection activeCell="M14" sqref="M14:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -5520,7 +5509,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -5556,7 +5545,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -5589,7 +5578,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5624,7 +5613,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -5657,7 +5646,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -5690,7 +5679,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -5725,7 +5714,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -5870,7 +5859,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -5922,7 +5911,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
@@ -5972,7 +5961,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -6024,7 +6013,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -6074,7 +6063,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -6124,7 +6113,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -6176,7 +6165,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
@@ -6352,34 +6341,34 @@
       <selection activeCell="M14" sqref="M14:M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -6409,7 +6398,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -6444,7 +6433,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -6477,7 +6466,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6512,7 +6501,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -6545,7 +6534,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -6578,7 +6567,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -6613,7 +6602,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -6758,7 +6747,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -6810,7 +6799,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
@@ -6860,7 +6849,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -6912,7 +6901,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -6962,7 +6951,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="18" t="s">
         <v>8</v>
       </c>
@@ -7012,7 +7001,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -7064,7 +7053,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="18" t="s">
         <v>10</v>
       </c>
@@ -7237,37 +7226,37 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M22"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -7297,7 +7286,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -7332,7 +7321,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -7365,7 +7354,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -7400,7 +7389,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -7433,7 +7422,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -7466,7 +7455,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -7501,7 +7490,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -7646,7 +7635,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -7698,7 +7687,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
@@ -7748,7 +7737,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -7800,7 +7789,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -7850,7 +7839,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="18" t="s">
         <v>8</v>
       </c>
@@ -7900,7 +7889,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -7952,7 +7941,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="18" t="s">
         <v>10</v>
       </c>
@@ -8128,34 +8117,34 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -8185,7 +8174,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -8220,7 +8209,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -8253,7 +8242,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -8288,7 +8277,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
@@ -8321,7 +8310,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -8354,7 +8343,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -8389,7 +8378,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -8534,7 +8523,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -8586,7 +8575,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
@@ -8636,7 +8625,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -8688,7 +8677,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
@@ -8738,7 +8727,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="18" t="s">
         <v>8</v>
       </c>
@@ -8788,7 +8777,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -8840,7 +8829,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="18" t="s">
         <v>10</v>
       </c>
